--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H2">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I2">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J2">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N2">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P2">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q2">
-        <v>238.4186252357446</v>
+        <v>134.4453095548119</v>
       </c>
       <c r="R2">
-        <v>2145.767627121701</v>
+        <v>1210.007785993307</v>
       </c>
       <c r="S2">
-        <v>0.0001338638603813288</v>
+        <v>8.69590090878717E-05</v>
       </c>
       <c r="T2">
-        <v>0.0001338638603813288</v>
+        <v>8.695900908787172E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H3">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I3">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J3">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P3">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q3">
-        <v>7136.120591897021</v>
+        <v>8621.648755370581</v>
       </c>
       <c r="R3">
-        <v>64225.08532707319</v>
+        <v>77594.83879833524</v>
       </c>
       <c r="S3">
-        <v>0.004006686346897073</v>
+        <v>0.005576468490818204</v>
       </c>
       <c r="T3">
-        <v>0.004006686346897074</v>
+        <v>0.005576468490818205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H4">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I4">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J4">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N4">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P4">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q4">
-        <v>979.8822999253607</v>
+        <v>1055.718445166053</v>
       </c>
       <c r="R4">
-        <v>8818.940699328248</v>
+        <v>9501.466006494482</v>
       </c>
       <c r="S4">
-        <v>0.0005501702195356765</v>
+        <v>0.0006828369853245126</v>
       </c>
       <c r="T4">
-        <v>0.0005501702195356766</v>
+        <v>0.0006828369853245126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.32133366666666</v>
+        <v>35.42516366666666</v>
       </c>
       <c r="H5">
-        <v>87.964001</v>
+        <v>106.275491</v>
       </c>
       <c r="I5">
-        <v>0.006401919837078288</v>
+        <v>0.00832770193000585</v>
       </c>
       <c r="J5">
-        <v>0.006401919837078288</v>
+        <v>0.008327701930005852</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N5">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P5">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q5">
-        <v>3047.736780765323</v>
+        <v>3063.454533585066</v>
       </c>
       <c r="R5">
-        <v>27429.63102688791</v>
+        <v>27571.0908022656</v>
       </c>
       <c r="S5">
-        <v>0.001711199410264209</v>
+        <v>0.001981437444775262</v>
       </c>
       <c r="T5">
-        <v>0.001711199410264209</v>
+        <v>0.001981437444775262</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>136.573239</v>
       </c>
       <c r="I6">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J6">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N6">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P6">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q6">
-        <v>370.169654815642</v>
+        <v>172.7739031971004</v>
       </c>
       <c r="R6">
-        <v>3331.526893340778</v>
+        <v>1554.965128773903</v>
       </c>
       <c r="S6">
-        <v>0.0002078375334169014</v>
+        <v>0.0001117498815541683</v>
       </c>
       <c r="T6">
-        <v>0.0002078375334169014</v>
+        <v>0.0001117498815541683</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>136.573239</v>
       </c>
       <c r="I7">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J7">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P7">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q7">
-        <v>11079.56768735398</v>
+        <v>11079.56768735399</v>
       </c>
       <c r="R7">
-        <v>99716.10918618584</v>
+        <v>99716.10918618586</v>
       </c>
       <c r="S7">
-        <v>0.006220796301123355</v>
+        <v>0.007166246486431044</v>
       </c>
       <c r="T7">
-        <v>0.006220796301123354</v>
+        <v>0.007166246486431044</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>136.573239</v>
       </c>
       <c r="I8">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J8">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N8">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P8">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q8">
-        <v>1521.368946594141</v>
+        <v>1356.689921370223</v>
       </c>
       <c r="R8">
-        <v>13692.32051934727</v>
+        <v>12210.20929233201</v>
       </c>
       <c r="S8">
-        <v>0.0008541963533847039</v>
+        <v>0.0008775048500577067</v>
       </c>
       <c r="T8">
-        <v>0.0008541963533847037</v>
+        <v>0.0008775048500577066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>136.573239</v>
       </c>
       <c r="I9">
-        <v>0.009939644832300594</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="J9">
-        <v>0.009939644832300592</v>
+        <v>0.01070182047907406</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N9">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P9">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q9">
-        <v>4731.927595796298</v>
+        <v>3936.805224272705</v>
       </c>
       <c r="R9">
-        <v>42587.34836216668</v>
+        <v>35431.24701845434</v>
       </c>
       <c r="S9">
-        <v>0.002656814644375634</v>
+        <v>0.002546319261031136</v>
       </c>
       <c r="T9">
-        <v>0.002656814644375634</v>
+        <v>0.002546319261031136</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H10">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J10">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N10">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P10">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q10">
-        <v>544.9835939534972</v>
+        <v>193.8138156959807</v>
       </c>
       <c r="R10">
-        <v>4904.852345581476</v>
+        <v>1744.324341263826</v>
       </c>
       <c r="S10">
-        <v>0.0003059895495117898</v>
+        <v>0.000125358462978515</v>
       </c>
       <c r="T10">
-        <v>0.0003059895495117898</v>
+        <v>0.000125358462978515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H11">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J11">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P11">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q11">
-        <v>16311.93302625643</v>
+        <v>12428.80579770341</v>
       </c>
       <c r="R11">
-        <v>146807.3972363079</v>
+        <v>111859.2521793307</v>
       </c>
       <c r="S11">
-        <v>0.009158589531406315</v>
+        <v>0.008038931517155339</v>
       </c>
       <c r="T11">
-        <v>0.009158589531406316</v>
+        <v>0.00803893151715534</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H12">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J12">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N12">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P12">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q12">
-        <v>2239.840855288513</v>
+        <v>1521.903745365266</v>
       </c>
       <c r="R12">
-        <v>20158.56769759662</v>
+        <v>13697.13370828739</v>
       </c>
       <c r="S12">
-        <v>0.001257593626472205</v>
+        <v>0.0009843648845936812</v>
       </c>
       <c r="T12">
-        <v>0.001257593626472205</v>
+        <v>0.0009843648845936812</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>67.02347933333333</v>
+        <v>51.06824600000001</v>
       </c>
       <c r="H13">
-        <v>201.070438</v>
+        <v>153.204738</v>
       </c>
       <c r="I13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="J13">
-        <v>0.01463367753909034</v>
+        <v>0.01200505761322374</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N13">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P13">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q13">
-        <v>6966.597272186306</v>
+        <v>4416.21812119233</v>
       </c>
       <c r="R13">
-        <v>62699.37544967676</v>
+        <v>39745.96309073097</v>
       </c>
       <c r="S13">
-        <v>0.003911504831700029</v>
+        <v>0.002856402748496203</v>
       </c>
       <c r="T13">
-        <v>0.00391150483170003</v>
+        <v>0.002856402748496203</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H14">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I14">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J14">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.131233999999999</v>
+        <v>3.795192333333334</v>
       </c>
       <c r="N14">
-        <v>24.393702</v>
+        <v>11.385577</v>
       </c>
       <c r="O14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="P14">
-        <v>0.02090995573015823</v>
+        <v>0.01044213755712683</v>
       </c>
       <c r="Q14">
-        <v>36088.16674553933</v>
+        <v>15643.31395765004</v>
       </c>
       <c r="R14">
-        <v>324793.5007098539</v>
+        <v>140789.8256188504</v>
       </c>
       <c r="S14">
-        <v>0.02026226478684821</v>
+        <v>0.01011807020350628</v>
       </c>
       <c r="T14">
-        <v>0.02026226478684821</v>
+        <v>0.01011807020350628</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H15">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I15">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J15">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,25 +1364,25 @@
         <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>730.129196</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="P15">
-        <v>0.6258570005346471</v>
+        <v>0.6696287328350964</v>
       </c>
       <c r="Q15">
-        <v>1080156.844214731</v>
+        <v>1003167.449719465</v>
       </c>
       <c r="R15">
-        <v>9721411.597932575</v>
+        <v>9028507.047475189</v>
       </c>
       <c r="S15">
-        <v>0.6064709283552204</v>
+        <v>0.6488470863406918</v>
       </c>
       <c r="T15">
-        <v>0.6064709283552203</v>
+        <v>0.6488470863406918</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H16">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I16">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J16">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.41874933333333</v>
+        <v>29.801371</v>
       </c>
       <c r="N16">
-        <v>100.256248</v>
+        <v>89.404113</v>
       </c>
       <c r="O16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219236</v>
       </c>
       <c r="P16">
-        <v>0.08593831749489128</v>
+        <v>0.08199584844219235</v>
       </c>
       <c r="Q16">
-        <v>148319.6029494065</v>
+        <v>122837.5697396997</v>
       </c>
       <c r="R16">
-        <v>1334876.426544659</v>
+        <v>1105538.127657298</v>
       </c>
       <c r="S16">
-        <v>0.0832763572954987</v>
+        <v>0.07945114172221646</v>
       </c>
       <c r="T16">
-        <v>0.08327635729549869</v>
+        <v>0.07945114172221644</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>4438.215250666667</v>
+        <v>4121.876464666667</v>
       </c>
       <c r="H17">
-        <v>13314.645752</v>
+        <v>12365.629394</v>
       </c>
       <c r="I17">
-        <v>0.9690247577915309</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="J17">
-        <v>0.9690247577915307</v>
+        <v>0.9689654199776964</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>103.9426383333333</v>
+        <v>86.47679266666667</v>
       </c>
       <c r="N17">
-        <v>311.827915</v>
+        <v>259.430378</v>
       </c>
       <c r="O17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="P17">
-        <v>0.2672947262403034</v>
+        <v>0.2379332811655844</v>
       </c>
       <c r="Q17">
-        <v>461319.8026455297</v>
+        <v>356446.6564325924</v>
       </c>
       <c r="R17">
-        <v>4151878.223809767</v>
+        <v>3208019.907893331</v>
       </c>
       <c r="S17">
-        <v>0.2590152073539636</v>
+        <v>0.2305491217112818</v>
       </c>
       <c r="T17">
-        <v>0.2590152073539636</v>
+        <v>0.2305491217112818</v>
       </c>
     </row>
   </sheetData>
